--- a/Code/Results/Cases/Case_0_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>8.804883648594638</v>
+        <v>10.79022983580887</v>
       </c>
       <c r="D2">
-        <v>7.376403201951234</v>
+        <v>9.475165924678562</v>
       </c>
       <c r="E2">
-        <v>9.307743154315876</v>
+        <v>13.91678701490353</v>
       </c>
       <c r="F2">
-        <v>18.95140907284815</v>
+        <v>32.09718107448681</v>
       </c>
       <c r="G2">
-        <v>19.08454998008913</v>
+        <v>32.96140971147478</v>
       </c>
       <c r="H2">
-        <v>8.387162825614606</v>
+        <v>15.52060635840146</v>
       </c>
       <c r="I2">
-        <v>14.37813368581121</v>
+        <v>25.17226234293376</v>
       </c>
       <c r="J2">
-        <v>5.755187445461893</v>
+        <v>10.16169778273283</v>
       </c>
       <c r="K2">
-        <v>24.42566210192242</v>
+        <v>17.73659794296289</v>
       </c>
       <c r="L2">
-        <v>6.014238997287899</v>
+        <v>10.37018813975018</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.20668272047085</v>
+        <v>24.1476135503099</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.41679993947432</v>
+        <v>10.72102891871319</v>
       </c>
       <c r="D3">
-        <v>7.070626374237307</v>
+        <v>9.420236036357634</v>
       </c>
       <c r="E3">
-        <v>9.07889448245332</v>
+        <v>13.90291528193176</v>
       </c>
       <c r="F3">
-        <v>18.98380842755396</v>
+        <v>32.25345759410513</v>
       </c>
       <c r="G3">
-        <v>19.27149633731113</v>
+        <v>33.20925651238893</v>
       </c>
       <c r="H3">
-        <v>8.546357755915468</v>
+        <v>15.59771430635909</v>
       </c>
       <c r="I3">
-        <v>14.4852828394648</v>
+        <v>25.29730471369855</v>
       </c>
       <c r="J3">
-        <v>5.765847083153865</v>
+        <v>10.1812461113481</v>
       </c>
       <c r="K3">
-        <v>22.84073679197153</v>
+        <v>17.04606431142616</v>
       </c>
       <c r="L3">
-        <v>5.992976172426568</v>
+        <v>10.38407781869823</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.44894330828543</v>
+        <v>24.29423069403494</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.171986417799634</v>
+        <v>10.67979973494859</v>
       </c>
       <c r="D4">
-        <v>6.877759743670059</v>
+        <v>9.387320267379634</v>
       </c>
       <c r="E4">
-        <v>8.939092186134852</v>
+        <v>13.8962444352582</v>
       </c>
       <c r="F4">
-        <v>19.02801571135646</v>
+        <v>32.35780198137804</v>
       </c>
       <c r="G4">
-        <v>19.42650351246426</v>
+        <v>33.37312099131682</v>
       </c>
       <c r="H4">
-        <v>8.650545199864824</v>
+        <v>15.64789720532501</v>
       </c>
       <c r="I4">
-        <v>14.56770882113315</v>
+        <v>25.3800098438682</v>
       </c>
       <c r="J4">
-        <v>5.774486079664978</v>
+        <v>10.19426596534733</v>
       </c>
       <c r="K4">
-        <v>21.809873229832</v>
+        <v>16.60646229718066</v>
       </c>
       <c r="L4">
-        <v>5.981913476704101</v>
+        <v>10.39362290312193</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.61371357678035</v>
+        <v>24.39010207860801</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.070714661623976</v>
+        <v>10.66332860396209</v>
       </c>
       <c r="D5">
-        <v>6.797981222810096</v>
+        <v>9.374120115396359</v>
       </c>
       <c r="E5">
-        <v>8.882371327925414</v>
+        <v>13.89399296503783</v>
       </c>
       <c r="F5">
-        <v>19.05186748938613</v>
+        <v>32.40242715969512</v>
       </c>
       <c r="G5">
-        <v>19.49912059989024</v>
+        <v>33.44282285128294</v>
       </c>
       <c r="H5">
-        <v>8.69456408424856</v>
+        <v>15.66906141213004</v>
       </c>
       <c r="I5">
-        <v>14.60527852709239</v>
+        <v>25.41520114423518</v>
       </c>
       <c r="J5">
-        <v>5.778523681711873</v>
+        <v>10.19982781056113</v>
       </c>
       <c r="K5">
-        <v>21.3752479673128</v>
+        <v>16.42360797839796</v>
       </c>
       <c r="L5">
-        <v>5.977901481040202</v>
+        <v>10.39776871663675</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.68466536532597</v>
+        <v>24.43063970946301</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.053811731809869</v>
+        <v>10.66061389681895</v>
       </c>
       <c r="D6">
-        <v>6.784665841182496</v>
+        <v>9.371941387373019</v>
       </c>
       <c r="E6">
-        <v>8.872970062219848</v>
+        <v>13.89364738612111</v>
       </c>
       <c r="F6">
-        <v>19.05617243142197</v>
+        <v>32.4099640444434</v>
       </c>
       <c r="G6">
-        <v>19.51173021998838</v>
+        <v>33.4545731344628</v>
       </c>
       <c r="H6">
-        <v>8.701966122531504</v>
+        <v>15.67261886933885</v>
       </c>
       <c r="I6">
-        <v>14.6117515302574</v>
+        <v>25.42113444905747</v>
       </c>
       <c r="J6">
-        <v>5.779225084731949</v>
+        <v>10.20076683291621</v>
       </c>
       <c r="K6">
-        <v>21.30220004390459</v>
+        <v>16.39302763697912</v>
       </c>
       <c r="L6">
-        <v>5.97726510680473</v>
+        <v>10.3984726071482</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.69667060689574</v>
+        <v>24.43745965780722</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.170626548444323</v>
+        <v>10.67957624595469</v>
       </c>
       <c r="D7">
-        <v>6.876688469557386</v>
+        <v>9.387141369882029</v>
       </c>
       <c r="E7">
-        <v>8.938326122695232</v>
+        <v>13.89621217712147</v>
       </c>
       <c r="F7">
-        <v>19.02831411976277</v>
+        <v>32.35839530076225</v>
       </c>
       <c r="G7">
-        <v>19.42744545616468</v>
+        <v>33.37404918531093</v>
       </c>
       <c r="H7">
-        <v>8.651132603180736</v>
+        <v>15.64817974043057</v>
       </c>
       <c r="I7">
-        <v>14.56819964672975</v>
+        <v>25.38047842333357</v>
       </c>
       <c r="J7">
-        <v>5.774538450584235</v>
+        <v>10.19433993668181</v>
       </c>
       <c r="K7">
-        <v>21.80407062089959</v>
+        <v>16.60401099316211</v>
       </c>
       <c r="L7">
-        <v>5.981857367438721</v>
+        <v>10.3936777774404</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.61465532533508</v>
+        <v>24.39064283586061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.672501735820219</v>
+        <v>10.76611577647616</v>
       </c>
       <c r="D8">
-        <v>7.272091538003838</v>
+        <v>9.456063326644939</v>
       </c>
       <c r="E8">
-        <v>9.228730122289127</v>
+        <v>13.91162245937945</v>
       </c>
       <c r="F8">
-        <v>18.95736881538914</v>
+        <v>32.14932044658381</v>
       </c>
       <c r="G8">
-        <v>19.14025955417294</v>
+        <v>33.04443427875535</v>
       </c>
       <c r="H8">
-        <v>8.440679593249493</v>
+        <v>15.54660441855545</v>
       </c>
       <c r="I8">
-        <v>14.41150241083202</v>
+        <v>25.21414495907432</v>
       </c>
       <c r="J8">
-        <v>5.758422586914753</v>
+        <v>10.16822718260138</v>
       </c>
       <c r="K8">
-        <v>23.89113763994475</v>
+        <v>17.50186181050254</v>
       </c>
       <c r="L8">
-        <v>6.006491084730241</v>
+        <v>10.3747665384468</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.28674975152056</v>
+        <v>24.19695266271707</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.599936282861339</v>
+        <v>10.94522328874102</v>
       </c>
       <c r="D9">
-        <v>8.002992698631877</v>
+        <v>9.59723959906405</v>
       </c>
       <c r="E9">
-        <v>9.800895802868423</v>
+        <v>13.95636892771991</v>
       </c>
       <c r="F9">
-        <v>19.02321832360304</v>
+        <v>31.80615035206049</v>
       </c>
       <c r="G9">
-        <v>18.92594383679211</v>
+        <v>32.4913544692944</v>
       </c>
       <c r="H9">
-        <v>8.082029713027918</v>
+        <v>15.36991082199041</v>
       </c>
       <c r="I9">
-        <v>14.24550703127908</v>
+        <v>24.93511864814448</v>
       </c>
       <c r="J9">
-        <v>5.743864949320704</v>
+        <v>10.12507305883669</v>
       </c>
       <c r="K9">
-        <v>27.5278148505971</v>
+        <v>19.13059847827982</v>
       </c>
       <c r="L9">
-        <v>6.070820497392028</v>
+        <v>10.34572979682794</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.78176330749321</v>
+        <v>23.86358294645079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.24130972564986</v>
+        <v>11.08172103612097</v>
       </c>
       <c r="D10">
-        <v>8.508558267086656</v>
+        <v>9.704058855606691</v>
       </c>
       <c r="E10">
-        <v>10.21920772292849</v>
+        <v>13.99792321145488</v>
       </c>
       <c r="F10">
-        <v>19.21230930054981</v>
+        <v>31.59510668462714</v>
       </c>
       <c r="G10">
-        <v>19.02065264475988</v>
+        <v>32.1426801226538</v>
       </c>
       <c r="H10">
-        <v>7.856108220875418</v>
+        <v>15.25377208967715</v>
       </c>
       <c r="I10">
-        <v>14.22259632910442</v>
+        <v>24.75901768761951</v>
       </c>
       <c r="J10">
-        <v>5.744169636317153</v>
+        <v>10.09825342334112</v>
       </c>
       <c r="K10">
-        <v>29.92495275083302</v>
+        <v>20.23759882621242</v>
       </c>
       <c r="L10">
-        <v>6.128129170774984</v>
+        <v>10.32927657319878</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>12.51136009906385</v>
+        <v>23.64705547213559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.52355888215603</v>
+        <v>11.14470094527899</v>
       </c>
       <c r="D11">
-        <v>8.731044749948433</v>
+        <v>9.753200338005584</v>
       </c>
       <c r="E11">
-        <v>10.40837140856062</v>
+        <v>14.01866978443611</v>
       </c>
       <c r="F11">
-        <v>19.33198746436445</v>
+        <v>31.50809154087982</v>
       </c>
       <c r="G11">
-        <v>19.12627595887956</v>
+        <v>31.99675922229986</v>
       </c>
       <c r="H11">
-        <v>7.762688865825713</v>
+        <v>15.20390065264063</v>
       </c>
       <c r="I11">
-        <v>14.23647045181931</v>
+        <v>24.6852138230532</v>
       </c>
       <c r="J11">
-        <v>5.746832941850355</v>
+        <v>10.08710832521912</v>
       </c>
       <c r="K11">
-        <v>30.95667983895006</v>
+        <v>20.72020805278015</v>
       </c>
       <c r="L11">
-        <v>6.156437473762071</v>
+        <v>10.32284542433961</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>12.41417332340541</v>
+        <v>23.55473710432893</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.62901843986619</v>
+        <v>11.16866158185828</v>
       </c>
       <c r="D12">
-        <v>8.814172445580105</v>
+        <v>9.771877016821144</v>
       </c>
       <c r="E12">
-        <v>10.4797897883794</v>
+        <v>14.02678707626977</v>
       </c>
       <c r="F12">
-        <v>19.38237824315257</v>
+        <v>31.47643993664601</v>
       </c>
       <c r="G12">
-        <v>19.17583097645284</v>
+        <v>31.94334321733729</v>
       </c>
       <c r="H12">
-        <v>7.728773467034393</v>
+        <v>15.18544099206389</v>
       </c>
       <c r="I12">
-        <v>14.24544518230422</v>
+        <v>24.65817588227188</v>
       </c>
       <c r="J12">
-        <v>5.748216075795373</v>
+        <v>10.08303931287767</v>
       </c>
       <c r="K12">
-        <v>31.33899718346328</v>
+        <v>20.89983982277631</v>
       </c>
       <c r="L12">
-        <v>6.167483165562251</v>
+        <v>10.32056110014056</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>12.38144104912176</v>
+        <v>23.5206693275509</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.60636981776877</v>
+        <v>11.16349652582794</v>
       </c>
       <c r="D13">
-        <v>8.796319980860162</v>
+        <v>9.767851818478688</v>
       </c>
       <c r="E13">
-        <v>10.46441883125383</v>
+        <v>14.02502733033499</v>
       </c>
       <c r="F13">
-        <v>19.37129666440179</v>
+        <v>31.48319879452858</v>
       </c>
       <c r="G13">
-        <v>19.16472510032475</v>
+        <v>31.95476517219156</v>
       </c>
       <c r="H13">
-        <v>7.736010821695792</v>
+        <v>15.18939768517069</v>
       </c>
       <c r="I13">
-        <v>14.24334325274714</v>
+        <v>24.66395846243534</v>
       </c>
       <c r="J13">
-        <v>5.747901345070384</v>
+        <v>10.08390891986035</v>
       </c>
       <c r="K13">
-        <v>31.25702959609248</v>
+        <v>20.86129328163104</v>
       </c>
       <c r="L13">
-        <v>6.165089716688091</v>
+        <v>10.32104636172888</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>12.38830361646076</v>
+        <v>23.5279667583506</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.5322638707797</v>
+        <v>11.14667005821565</v>
       </c>
       <c r="D14">
-        <v>8.737906450069381</v>
+        <v>9.754735583119063</v>
       </c>
       <c r="E14">
-        <v>10.41425160151006</v>
+        <v>14.01933239176631</v>
       </c>
       <c r="F14">
-        <v>19.33603025223166</v>
+        <v>31.50546147099665</v>
       </c>
       <c r="G14">
-        <v>19.13015834557721</v>
+        <v>31.99232766580009</v>
       </c>
       <c r="H14">
-        <v>7.759868647547859</v>
+        <v>15.20237343702057</v>
       </c>
       <c r="I14">
-        <v>14.23713294926238</v>
+        <v>24.68297113913829</v>
       </c>
       <c r="J14">
-        <v>5.746939158181541</v>
+        <v>10.08677053299652</v>
       </c>
       <c r="K14">
-        <v>30.98830074020247</v>
+        <v>20.73504958736762</v>
       </c>
       <c r="L14">
-        <v>6.157339653635089</v>
+        <v>10.32265446790719</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>12.41139673226069</v>
+        <v>23.55191645323418</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.48668524476346</v>
+        <v>11.13637740749889</v>
       </c>
       <c r="D15">
-        <v>8.701979032535903</v>
+        <v>9.746710018711022</v>
       </c>
       <c r="E15">
-        <v>10.38349344888295</v>
+        <v>14.01587794536799</v>
       </c>
       <c r="F15">
-        <v>19.3150955197524</v>
+        <v>31.51926737961544</v>
       </c>
       <c r="G15">
-        <v>19.11024547185382</v>
+        <v>32.01557601498777</v>
       </c>
       <c r="H15">
-        <v>7.774676101463446</v>
+        <v>15.21037687716954</v>
       </c>
       <c r="I15">
-        <v>14.23382020391604</v>
+        <v>24.69473555677745</v>
       </c>
       <c r="J15">
-        <v>5.746398923510601</v>
+        <v>10.08854305911915</v>
       </c>
       <c r="K15">
-        <v>30.82260806733884</v>
+        <v>20.65731223043938</v>
       </c>
       <c r="L15">
-        <v>6.152635085396225</v>
+        <v>10.32365913111662</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>12.42608292588768</v>
+        <v>23.56670246346415</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.22266774211237</v>
+        <v>11.07762162712202</v>
       </c>
       <c r="D16">
-        <v>8.493863330680261</v>
+        <v>9.700857445316757</v>
       </c>
       <c r="E16">
-        <v>10.20681818976636</v>
+        <v>13.9966041249652</v>
       </c>
       <c r="F16">
-        <v>19.20518554369539</v>
+        <v>31.60097477616216</v>
       </c>
       <c r="G16">
-        <v>19.01505820119477</v>
+        <v>32.152473158478</v>
       </c>
       <c r="H16">
-        <v>7.862411188818966</v>
+        <v>15.25709086605676</v>
       </c>
       <c r="I16">
-        <v>14.22219802450967</v>
+        <v>24.76396810318078</v>
       </c>
       <c r="J16">
-        <v>5.744047365705759</v>
+        <v>10.09900298655284</v>
       </c>
       <c r="K16">
-        <v>29.85635091961927</v>
+        <v>20.2056277458526</v>
       </c>
       <c r="L16">
-        <v>6.12632454746435</v>
+        <v>10.32971802239238</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>12.51826116190549</v>
+        <v>23.6532132721437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.0582224520374</v>
+        <v>11.04179258359434</v>
       </c>
       <c r="D17">
-        <v>8.364235863828705</v>
+        <v>9.672861114802096</v>
       </c>
       <c r="E17">
-        <v>10.09810616736246</v>
+        <v>13.98524956456917</v>
       </c>
       <c r="F17">
-        <v>19.14655060581711</v>
+        <v>31.65340669260443</v>
       </c>
       <c r="G17">
-        <v>18.97310480162178</v>
+        <v>32.23971725839493</v>
       </c>
       <c r="H17">
-        <v>7.918707603414224</v>
+        <v>15.28650654803486</v>
       </c>
       <c r="I17">
-        <v>14.22145373672166</v>
+        <v>24.80805730336892</v>
       </c>
       <c r="J17">
-        <v>5.743259505187956</v>
+        <v>10.10568984637757</v>
       </c>
       <c r="K17">
-        <v>29.24858737177219</v>
+        <v>19.92308212679968</v>
       </c>
       <c r="L17">
-        <v>6.110760094121956</v>
+        <v>10.33370444680658</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.58167083712871</v>
+        <v>23.70786960968346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.962744709231043</v>
+        <v>11.02126906282886</v>
       </c>
       <c r="D18">
-        <v>8.288973925441775</v>
+        <v>9.656810696596935</v>
       </c>
       <c r="E18">
-        <v>10.03547440248244</v>
+        <v>13.97889248017512</v>
       </c>
       <c r="F18">
-        <v>19.11598084949802</v>
+        <v>31.6844099145066</v>
       </c>
       <c r="G18">
-        <v>18.95483090463633</v>
+        <v>32.29109149899683</v>
       </c>
       <c r="H18">
-        <v>7.951960536507347</v>
+        <v>15.30370434876479</v>
       </c>
       <c r="I18">
-        <v>14.22329909201002</v>
+        <v>24.83400953621634</v>
       </c>
       <c r="J18">
-        <v>5.743043274543354</v>
+        <v>10.10963530142125</v>
       </c>
       <c r="K18">
-        <v>28.8934840299657</v>
+        <v>19.75860077640657</v>
       </c>
       <c r="L18">
-        <v>6.102018273649056</v>
+        <v>10.33609652325974</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>12.62055012661373</v>
+        <v>23.73988813242613</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.930266021110425</v>
+        <v>11.01433513039503</v>
       </c>
       <c r="D19">
-        <v>8.263372191110307</v>
+        <v>9.651385624118658</v>
       </c>
       <c r="E19">
-        <v>10.01425225131516</v>
+        <v>13.97677004373626</v>
       </c>
       <c r="F19">
-        <v>19.10616507479163</v>
+        <v>31.6950521373258</v>
       </c>
       <c r="G19">
-        <v>18.9496312391077</v>
+        <v>32.30869048143367</v>
       </c>
       <c r="H19">
-        <v>7.963365989812335</v>
+        <v>15.30957509765971</v>
       </c>
       <c r="I19">
-        <v>14.22430738718058</v>
+        <v>24.84289831516871</v>
       </c>
       <c r="J19">
-        <v>5.743010408606778</v>
+        <v>10.11098823895517</v>
       </c>
       <c r="K19">
-        <v>28.77229959993014</v>
+        <v>19.70257561002048</v>
       </c>
       <c r="L19">
-        <v>6.099094461484964</v>
+        <v>10.33692348971276</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>12.63411695040417</v>
+        <v>23.75082888198175</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.07582080030013</v>
+        <v>11.04559802675479</v>
       </c>
       <c r="D20">
-        <v>8.378108107735482</v>
+        <v>9.675836035803329</v>
       </c>
       <c r="E20">
-        <v>10.10968984919811</v>
+        <v>13.98644032223808</v>
       </c>
       <c r="F20">
-        <v>19.15246407906908</v>
+        <v>31.64773764465727</v>
       </c>
       <c r="G20">
-        <v>18.9769603682529</v>
+        <v>32.23030631311053</v>
       </c>
       <c r="H20">
-        <v>7.912623634831241</v>
+        <v>15.28334635762499</v>
       </c>
       <c r="I20">
-        <v>14.22129601700569</v>
+        <v>24.80330250566031</v>
       </c>
       <c r="J20">
-        <v>5.743318770825469</v>
+        <v>10.10496773892924</v>
       </c>
       <c r="K20">
-        <v>29.31385706512409</v>
+        <v>19.95336415094729</v>
       </c>
       <c r="L20">
-        <v>6.112395147107357</v>
+        <v>10.33326982270419</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>12.57466905285631</v>
+        <v>23.70199113466667</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.55406954959606</v>
+        <v>11.15160950097414</v>
       </c>
       <c r="D21">
-        <v>8.755094714933346</v>
+        <v>9.758586386074267</v>
       </c>
       <c r="E21">
-        <v>10.4289931179653</v>
+        <v>14.0209980827605</v>
       </c>
       <c r="F21">
-        <v>19.34624947220775</v>
+        <v>31.49888707397995</v>
       </c>
       <c r="G21">
-        <v>19.14004789542247</v>
+        <v>31.98124455700441</v>
       </c>
       <c r="H21">
-        <v>7.752820403806135</v>
+        <v>15.19855059545968</v>
       </c>
       <c r="I21">
-        <v>14.23885429165153</v>
+        <v>24.67736193222358</v>
       </c>
       <c r="J21">
-        <v>5.747211515492952</v>
+        <v>10.08592590189138</v>
       </c>
       <c r="K21">
-        <v>31.06745962370437</v>
+        <v>20.77221591759699</v>
       </c>
       <c r="L21">
-        <v>6.159607156392367</v>
+        <v>10.32217803361528</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>12.40450031830295</v>
+        <v>23.54485764142028</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.85832686985897</v>
+        <v>11.22153663071869</v>
       </c>
       <c r="D22">
-        <v>8.99491618083508</v>
+        <v>9.813058918237433</v>
       </c>
       <c r="E22">
-        <v>10.63641022109604</v>
+        <v>14.0451029417733</v>
       </c>
       <c r="F22">
-        <v>19.50255215793643</v>
+        <v>31.40917994853201</v>
       </c>
       <c r="G22">
-        <v>19.30255434020284</v>
+        <v>31.82920702505237</v>
       </c>
       <c r="H22">
-        <v>7.656955630497612</v>
+        <v>15.14561216167341</v>
       </c>
       <c r="I22">
-        <v>14.2721199638191</v>
+        <v>24.60035809255075</v>
       </c>
       <c r="J22">
-        <v>5.751944715970684</v>
+        <v>10.07436323667738</v>
       </c>
       <c r="K22">
-        <v>32.16475957568253</v>
+        <v>21.28914749729698</v>
       </c>
       <c r="L22">
-        <v>6.192364718897235</v>
+        <v>10.31580888982391</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.31718824248262</v>
+        <v>23.44735750816413</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.69671381993486</v>
+        <v>11.18416171525633</v>
       </c>
       <c r="D23">
-        <v>8.867531877542538</v>
+        <v>9.783953854725759</v>
       </c>
       <c r="E23">
-        <v>10.52583919495337</v>
+        <v>14.03210009674175</v>
       </c>
       <c r="F23">
-        <v>19.41634585275801</v>
+        <v>31.45636307959783</v>
       </c>
       <c r="G23">
-        <v>19.21053727066878</v>
+        <v>31.90936441618544</v>
       </c>
       <c r="H23">
-        <v>7.707294190420215</v>
+        <v>15.17363947988388</v>
       </c>
       <c r="I23">
-        <v>14.25229773830852</v>
+        <v>24.64096993741494</v>
       </c>
       <c r="J23">
-        <v>5.74921430698372</v>
+        <v>10.08045383831988</v>
       </c>
       <c r="K23">
-        <v>31.58354827244672</v>
+        <v>21.01495111731395</v>
       </c>
       <c r="L23">
-        <v>6.174706032959606</v>
+        <v>10.31912786602087</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>12.36147843897664</v>
+        <v>23.49891894958506</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.06786749812831</v>
+        <v>11.04387735086044</v>
       </c>
       <c r="D24">
-        <v>8.371838759536852</v>
+        <v>9.674490932882881</v>
       </c>
       <c r="E24">
-        <v>10.10445327311377</v>
+        <v>13.98590144836653</v>
       </c>
       <c r="F24">
-        <v>19.14978083437653</v>
+        <v>31.65029794468612</v>
       </c>
       <c r="G24">
-        <v>18.97519910237596</v>
+        <v>32.23455721348927</v>
       </c>
       <c r="H24">
-        <v>7.915371441627856</v>
+        <v>15.2847741877698</v>
       </c>
       <c r="I24">
-        <v>14.22136025867315</v>
+        <v>24.80545026613469</v>
       </c>
       <c r="J24">
-        <v>5.74329124036791</v>
+        <v>10.10529388879245</v>
       </c>
       <c r="K24">
-        <v>29.2843663713932</v>
+        <v>19.93968000033817</v>
       </c>
       <c r="L24">
-        <v>6.111655297099563</v>
+        <v>10.33346600402602</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>12.57782703545356</v>
+        <v>23.70464693728614</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.355735633005754</v>
+        <v>10.89584707337991</v>
       </c>
       <c r="D25">
-        <v>7.810516503400367</v>
+        <v>9.558461490667945</v>
       </c>
       <c r="E25">
-        <v>9.646220093569815</v>
+        <v>13.94272599049386</v>
       </c>
       <c r="F25">
-        <v>18.98179113443877</v>
+        <v>31.89179708090333</v>
       </c>
       <c r="G25">
-        <v>18.94241402322538</v>
+        <v>32.63090798801179</v>
       </c>
       <c r="H25">
-        <v>8.17282422825061</v>
+        <v>15.41530666854353</v>
       </c>
       <c r="I25">
-        <v>14.273962839923</v>
+        <v>25.0055388317799</v>
       </c>
       <c r="J25">
-        <v>5.745916373359845</v>
+        <v>10.13588770147167</v>
       </c>
       <c r="K25">
-        <v>26.59251153267104</v>
+        <v>18.70514017759158</v>
       </c>
       <c r="L25">
-        <v>6.051672694417047</v>
+        <v>10.35272605880337</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.90198063218605</v>
+        <v>23.9487871581479</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.79022983580887</v>
+        <v>8.804883648594705</v>
       </c>
       <c r="D2">
-        <v>9.475165924678562</v>
+        <v>7.376403201951286</v>
       </c>
       <c r="E2">
-        <v>13.91678701490353</v>
+        <v>9.307743154315823</v>
       </c>
       <c r="F2">
-        <v>32.09718107448681</v>
+        <v>18.951409072848</v>
       </c>
       <c r="G2">
-        <v>32.96140971147478</v>
+        <v>19.08454998008886</v>
       </c>
       <c r="H2">
-        <v>15.52060635840146</v>
+        <v>8.387162825614489</v>
       </c>
       <c r="I2">
-        <v>25.17226234293376</v>
+        <v>14.37813368581111</v>
       </c>
       <c r="J2">
-        <v>10.16169778273283</v>
+        <v>5.7551874454618</v>
       </c>
       <c r="K2">
-        <v>17.73659794296289</v>
+        <v>24.42566210192246</v>
       </c>
       <c r="L2">
-        <v>10.37018813975018</v>
+        <v>6.014238997287788</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.1476135503099</v>
+        <v>13.20668272047069</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.72102891871319</v>
+        <v>8.416799939474334</v>
       </c>
       <c r="D3">
-        <v>9.420236036357634</v>
+        <v>7.070626374237168</v>
       </c>
       <c r="E3">
-        <v>13.90291528193176</v>
+        <v>9.078894482453228</v>
       </c>
       <c r="F3">
-        <v>32.25345759410513</v>
+        <v>18.98380842755388</v>
       </c>
       <c r="G3">
-        <v>33.20925651238893</v>
+        <v>19.271496337311</v>
       </c>
       <c r="H3">
-        <v>15.59771430635909</v>
+        <v>8.54635775591553</v>
       </c>
       <c r="I3">
-        <v>25.29730471369855</v>
+        <v>14.48528283946485</v>
       </c>
       <c r="J3">
-        <v>10.1812461113481</v>
+        <v>5.765847083153808</v>
       </c>
       <c r="K3">
-        <v>17.04606431142616</v>
+        <v>22.84073679197153</v>
       </c>
       <c r="L3">
-        <v>10.38407781869823</v>
+        <v>5.992976172426505</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.29423069403494</v>
+        <v>13.44894330828548</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.67979973494859</v>
+        <v>8.171986417799676</v>
       </c>
       <c r="D4">
-        <v>9.387320267379634</v>
+        <v>6.877759743670053</v>
       </c>
       <c r="E4">
-        <v>13.8962444352582</v>
+        <v>8.939092186134788</v>
       </c>
       <c r="F4">
-        <v>32.35780198137804</v>
+        <v>19.0280157113564</v>
       </c>
       <c r="G4">
-        <v>33.37312099131682</v>
+        <v>19.42650351246425</v>
       </c>
       <c r="H4">
-        <v>15.64789720532501</v>
+        <v>8.650545199864759</v>
       </c>
       <c r="I4">
-        <v>25.3800098438682</v>
+        <v>14.56770882113308</v>
       </c>
       <c r="J4">
-        <v>10.19426596534733</v>
+        <v>5.774486079664915</v>
       </c>
       <c r="K4">
-        <v>16.60646229718066</v>
+        <v>21.80987322983203</v>
       </c>
       <c r="L4">
-        <v>10.39362290312193</v>
+        <v>5.981913476704041</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.39010207860801</v>
+        <v>13.61371357678031</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.66332860396209</v>
+        <v>8.070714661623962</v>
       </c>
       <c r="D5">
-        <v>9.374120115396359</v>
+        <v>6.797981222810096</v>
       </c>
       <c r="E5">
-        <v>13.89399296503783</v>
+        <v>8.882371327925419</v>
       </c>
       <c r="F5">
-        <v>32.40242715969512</v>
+        <v>19.05186748938615</v>
       </c>
       <c r="G5">
-        <v>33.44282285128294</v>
+        <v>19.49912059989038</v>
       </c>
       <c r="H5">
-        <v>15.66906141213004</v>
+        <v>8.694564084248441</v>
       </c>
       <c r="I5">
-        <v>25.41520114423518</v>
+        <v>14.60527852709241</v>
       </c>
       <c r="J5">
-        <v>10.19982781056113</v>
+        <v>5.778523681711816</v>
       </c>
       <c r="K5">
-        <v>16.42360797839796</v>
+        <v>21.37524796731282</v>
       </c>
       <c r="L5">
-        <v>10.39776871663675</v>
+        <v>5.977901481040175</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.43063970946301</v>
+        <v>13.68466536532598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.66061389681895</v>
+        <v>8.053811731809866</v>
       </c>
       <c r="D6">
-        <v>9.371941387373019</v>
+        <v>6.784665841182471</v>
       </c>
       <c r="E6">
-        <v>13.89364738612111</v>
+        <v>8.872970062219851</v>
       </c>
       <c r="F6">
-        <v>32.4099640444434</v>
+        <v>19.05617243142163</v>
       </c>
       <c r="G6">
-        <v>33.4545731344628</v>
+        <v>19.51173021998784</v>
       </c>
       <c r="H6">
-        <v>15.67261886933885</v>
+        <v>8.701966122531497</v>
       </c>
       <c r="I6">
-        <v>25.42113444905747</v>
+        <v>14.61175153025723</v>
       </c>
       <c r="J6">
-        <v>10.20076683291621</v>
+        <v>5.779225084731952</v>
       </c>
       <c r="K6">
-        <v>16.39302763697912</v>
+        <v>21.30220004390461</v>
       </c>
       <c r="L6">
-        <v>10.3984726071482</v>
+        <v>5.977265106804701</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.43745965780722</v>
+        <v>13.69667060689555</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.67957624595469</v>
+        <v>8.170626548444282</v>
       </c>
       <c r="D7">
-        <v>9.387141369882029</v>
+        <v>6.87668846955731</v>
       </c>
       <c r="E7">
-        <v>13.89621217712147</v>
+        <v>8.938326122695184</v>
       </c>
       <c r="F7">
-        <v>32.35839530076225</v>
+        <v>19.02831411976277</v>
       </c>
       <c r="G7">
-        <v>33.37404918531093</v>
+        <v>19.42744545616479</v>
       </c>
       <c r="H7">
-        <v>15.64817974043057</v>
+        <v>8.651132603180731</v>
       </c>
       <c r="I7">
-        <v>25.38047842333357</v>
+        <v>14.56819964672978</v>
       </c>
       <c r="J7">
-        <v>10.19433993668181</v>
+        <v>5.774538450584235</v>
       </c>
       <c r="K7">
-        <v>16.60401099316211</v>
+        <v>21.80407062089956</v>
       </c>
       <c r="L7">
-        <v>10.3936777774404</v>
+        <v>5.981857367438714</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.39064283586061</v>
+        <v>13.61465532533511</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.76611577647616</v>
+        <v>8.67250173582033</v>
       </c>
       <c r="D8">
-        <v>9.456063326644939</v>
+        <v>7.272091538003759</v>
       </c>
       <c r="E8">
-        <v>13.91162245937945</v>
+        <v>9.228730122289026</v>
       </c>
       <c r="F8">
-        <v>32.14932044658381</v>
+        <v>18.95736881538894</v>
       </c>
       <c r="G8">
-        <v>33.04443427875535</v>
+        <v>19.14025955417276</v>
       </c>
       <c r="H8">
-        <v>15.54660441855545</v>
+        <v>8.440679593249492</v>
       </c>
       <c r="I8">
-        <v>25.21414495907432</v>
+        <v>14.41150241083196</v>
       </c>
       <c r="J8">
-        <v>10.16822718260138</v>
+        <v>5.758422586914785</v>
       </c>
       <c r="K8">
-        <v>17.50186181050254</v>
+        <v>23.89113763994473</v>
       </c>
       <c r="L8">
-        <v>10.3747665384468</v>
+        <v>6.006491084730124</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.19695266271707</v>
+        <v>13.28674975152047</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.94522328874102</v>
+        <v>9.599936282861298</v>
       </c>
       <c r="D9">
-        <v>9.59723959906405</v>
+        <v>8.002992698631784</v>
       </c>
       <c r="E9">
-        <v>13.95636892771991</v>
+        <v>9.800895802868428</v>
       </c>
       <c r="F9">
-        <v>31.80615035206049</v>
+        <v>19.02321832360316</v>
       </c>
       <c r="G9">
-        <v>32.4913544692944</v>
+        <v>18.92594383679236</v>
       </c>
       <c r="H9">
-        <v>15.36991082199041</v>
+        <v>8.082029713027969</v>
       </c>
       <c r="I9">
-        <v>24.93511864814448</v>
+        <v>14.24550703127922</v>
       </c>
       <c r="J9">
-        <v>10.12507305883669</v>
+        <v>5.743864949320765</v>
       </c>
       <c r="K9">
-        <v>19.13059847827982</v>
+        <v>27.52781485059705</v>
       </c>
       <c r="L9">
-        <v>10.34572979682794</v>
+        <v>6.070820497392005</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.86358294645079</v>
+        <v>12.78176330749336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.08172103612097</v>
+        <v>10.24130972564983</v>
       </c>
       <c r="D10">
-        <v>9.704058855606691</v>
+        <v>8.508558267086684</v>
       </c>
       <c r="E10">
-        <v>13.99792321145488</v>
+        <v>10.21920772292851</v>
       </c>
       <c r="F10">
-        <v>31.59510668462714</v>
+        <v>19.21230930054984</v>
       </c>
       <c r="G10">
-        <v>32.1426801226538</v>
+        <v>19.0206526447598</v>
       </c>
       <c r="H10">
-        <v>15.25377208967715</v>
+        <v>7.856108220875474</v>
       </c>
       <c r="I10">
-        <v>24.75901768761951</v>
+        <v>14.22259632910442</v>
       </c>
       <c r="J10">
-        <v>10.09825342334112</v>
+        <v>5.744169636317105</v>
       </c>
       <c r="K10">
-        <v>20.23759882621242</v>
+        <v>29.92495275083301</v>
       </c>
       <c r="L10">
-        <v>10.32927657319878</v>
+        <v>6.128129170774991</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.64705547213559</v>
+        <v>12.51136009906387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.14470094527899</v>
+        <v>10.52355888215597</v>
       </c>
       <c r="D11">
-        <v>9.753200338005584</v>
+        <v>8.731044749948367</v>
       </c>
       <c r="E11">
-        <v>14.01866978443611</v>
+        <v>10.40837140856058</v>
       </c>
       <c r="F11">
-        <v>31.50809154087982</v>
+        <v>19.33198746436427</v>
       </c>
       <c r="G11">
-        <v>31.99675922229986</v>
+        <v>19.12627595887935</v>
       </c>
       <c r="H11">
-        <v>15.20390065264063</v>
+        <v>7.762688865825653</v>
       </c>
       <c r="I11">
-        <v>24.6852138230532</v>
+        <v>14.23647045181919</v>
       </c>
       <c r="J11">
-        <v>10.08710832521912</v>
+        <v>5.746832941850384</v>
       </c>
       <c r="K11">
-        <v>20.72020805278015</v>
+        <v>30.95667983895012</v>
       </c>
       <c r="L11">
-        <v>10.32284542433961</v>
+        <v>6.156437473762014</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.55473710432893</v>
+        <v>12.41417332340531</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.16866158185828</v>
+        <v>10.6290184398662</v>
       </c>
       <c r="D12">
-        <v>9.771877016821144</v>
+        <v>8.814172445580054</v>
       </c>
       <c r="E12">
-        <v>14.02678707626977</v>
+        <v>10.47978978837938</v>
       </c>
       <c r="F12">
-        <v>31.47643993664601</v>
+        <v>19.38237824315232</v>
       </c>
       <c r="G12">
-        <v>31.94334321733729</v>
+        <v>19.17583097645257</v>
       </c>
       <c r="H12">
-        <v>15.18544099206389</v>
+        <v>7.728773467034193</v>
       </c>
       <c r="I12">
-        <v>24.65817588227188</v>
+        <v>14.24544518230404</v>
       </c>
       <c r="J12">
-        <v>10.08303931287767</v>
+        <v>5.748216075795354</v>
       </c>
       <c r="K12">
-        <v>20.89983982277631</v>
+        <v>31.33899718346336</v>
       </c>
       <c r="L12">
-        <v>10.32056110014056</v>
+        <v>6.167483165562193</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.5206693275509</v>
+        <v>12.3814410491215</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.16349652582794</v>
+        <v>10.60636981776871</v>
       </c>
       <c r="D13">
-        <v>9.767851818478688</v>
+        <v>8.796319980860154</v>
       </c>
       <c r="E13">
-        <v>14.02502733033499</v>
+        <v>10.46441883125376</v>
       </c>
       <c r="F13">
-        <v>31.48319879452858</v>
+        <v>19.37129666440168</v>
       </c>
       <c r="G13">
-        <v>31.95476517219156</v>
+        <v>19.16472510032449</v>
       </c>
       <c r="H13">
-        <v>15.18939768517069</v>
+        <v>7.736010821695792</v>
       </c>
       <c r="I13">
-        <v>24.66395846243534</v>
+        <v>14.24334325274701</v>
       </c>
       <c r="J13">
-        <v>10.08390891986035</v>
+        <v>5.747901345070279</v>
       </c>
       <c r="K13">
-        <v>20.86129328163104</v>
+        <v>31.25702959609252</v>
       </c>
       <c r="L13">
-        <v>10.32104636172888</v>
+        <v>6.165089716688099</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.5279667583506</v>
+        <v>12.38830361646061</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.14667005821565</v>
+        <v>10.53226387077961</v>
       </c>
       <c r="D14">
-        <v>9.754735583119063</v>
+        <v>8.737906450069346</v>
       </c>
       <c r="E14">
-        <v>14.01933239176631</v>
+        <v>10.41425160151003</v>
       </c>
       <c r="F14">
-        <v>31.50546147099665</v>
+        <v>19.33603025223154</v>
       </c>
       <c r="G14">
-        <v>31.99232766580009</v>
+        <v>19.1301583455771</v>
       </c>
       <c r="H14">
-        <v>15.20237343702057</v>
+        <v>7.759868647547854</v>
       </c>
       <c r="I14">
-        <v>24.68297113913829</v>
+        <v>14.23713294926229</v>
       </c>
       <c r="J14">
-        <v>10.08677053299652</v>
+        <v>5.746939158181535</v>
       </c>
       <c r="K14">
-        <v>20.73504958736762</v>
+        <v>30.98830074020251</v>
       </c>
       <c r="L14">
-        <v>10.32265446790719</v>
+        <v>6.157339653635086</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.55191645323418</v>
+        <v>12.41139673226061</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.13637740749889</v>
+        <v>10.4866852447635</v>
       </c>
       <c r="D15">
-        <v>9.746710018711022</v>
+        <v>8.701979032535897</v>
       </c>
       <c r="E15">
-        <v>14.01587794536799</v>
+        <v>10.38349344888293</v>
       </c>
       <c r="F15">
-        <v>31.51926737961544</v>
+        <v>19.31509551975232</v>
       </c>
       <c r="G15">
-        <v>32.01557601498777</v>
+        <v>19.11024547185374</v>
       </c>
       <c r="H15">
-        <v>15.21037687716954</v>
+        <v>7.77467610146339</v>
       </c>
       <c r="I15">
-        <v>24.69473555677745</v>
+        <v>14.23382020391597</v>
       </c>
       <c r="J15">
-        <v>10.08854305911915</v>
+        <v>5.746398923510608</v>
       </c>
       <c r="K15">
-        <v>20.65731223043938</v>
+        <v>30.82260806733886</v>
       </c>
       <c r="L15">
-        <v>10.32365913111662</v>
+        <v>6.152635085396176</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.56670246346415</v>
+        <v>12.42608292588761</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.07762162712202</v>
+        <v>10.22266774211239</v>
       </c>
       <c r="D16">
-        <v>9.700857445316757</v>
+        <v>8.493863330680261</v>
       </c>
       <c r="E16">
-        <v>13.9966041249652</v>
+        <v>10.20681818976639</v>
       </c>
       <c r="F16">
-        <v>31.60097477616216</v>
+        <v>19.20518554369539</v>
       </c>
       <c r="G16">
-        <v>32.152473158478</v>
+        <v>19.01505820119478</v>
       </c>
       <c r="H16">
-        <v>15.25709086605676</v>
+        <v>7.862411188818963</v>
       </c>
       <c r="I16">
-        <v>24.76396810318078</v>
+        <v>14.22219802450969</v>
       </c>
       <c r="J16">
-        <v>10.09900298655284</v>
+        <v>5.744047365705784</v>
       </c>
       <c r="K16">
-        <v>20.2056277458526</v>
+        <v>29.85635091961928</v>
       </c>
       <c r="L16">
-        <v>10.32971802239238</v>
+        <v>6.126324547464352</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.6532132721437</v>
+        <v>12.51826116190549</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.04179258359434</v>
+        <v>10.0582224520373</v>
       </c>
       <c r="D17">
-        <v>9.672861114802096</v>
+        <v>8.364235863828693</v>
       </c>
       <c r="E17">
-        <v>13.98524956456917</v>
+        <v>10.09810616736242</v>
       </c>
       <c r="F17">
-        <v>31.65340669260443</v>
+        <v>19.14655060581692</v>
       </c>
       <c r="G17">
-        <v>32.23971725839493</v>
+        <v>18.97310480162146</v>
       </c>
       <c r="H17">
-        <v>15.28650654803486</v>
+        <v>7.918707603414194</v>
       </c>
       <c r="I17">
-        <v>24.80805730336892</v>
+        <v>14.22145373672151</v>
       </c>
       <c r="J17">
-        <v>10.10568984637757</v>
+        <v>5.743259505187976</v>
       </c>
       <c r="K17">
-        <v>19.92308212679968</v>
+        <v>29.24858737177221</v>
       </c>
       <c r="L17">
-        <v>10.33370444680658</v>
+        <v>6.110760094121956</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.70786960968346</v>
+        <v>12.58167083712858</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.02126906282886</v>
+        <v>9.962744709231094</v>
       </c>
       <c r="D18">
-        <v>9.656810696596935</v>
+        <v>8.288973925441834</v>
       </c>
       <c r="E18">
-        <v>13.97889248017512</v>
+        <v>10.03547440248251</v>
       </c>
       <c r="F18">
-        <v>31.6844099145066</v>
+        <v>19.115980849498</v>
       </c>
       <c r="G18">
-        <v>32.29109149899683</v>
+        <v>18.95483090463621</v>
       </c>
       <c r="H18">
-        <v>15.30370434876479</v>
+        <v>7.951960536507347</v>
       </c>
       <c r="I18">
-        <v>24.83400953621634</v>
+        <v>14.22329909200995</v>
       </c>
       <c r="J18">
-        <v>10.10963530142125</v>
+        <v>5.743043274543301</v>
       </c>
       <c r="K18">
-        <v>19.75860077640657</v>
+        <v>28.89348402996572</v>
       </c>
       <c r="L18">
-        <v>10.33609652325974</v>
+        <v>6.102018273649076</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.73988813242613</v>
+        <v>12.62055012661369</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.01433513039503</v>
+        <v>9.930266021110473</v>
       </c>
       <c r="D19">
-        <v>9.651385624118658</v>
+        <v>8.263372191110285</v>
       </c>
       <c r="E19">
-        <v>13.97677004373626</v>
+        <v>10.01425225131509</v>
       </c>
       <c r="F19">
-        <v>31.6950521373258</v>
+        <v>19.10616507479157</v>
       </c>
       <c r="G19">
-        <v>32.30869048143367</v>
+        <v>18.94963123910771</v>
       </c>
       <c r="H19">
-        <v>15.30957509765971</v>
+        <v>7.963365989812281</v>
       </c>
       <c r="I19">
-        <v>24.84289831516871</v>
+        <v>14.22430738718054</v>
       </c>
       <c r="J19">
-        <v>10.11098823895517</v>
+        <v>5.743010408606784</v>
       </c>
       <c r="K19">
-        <v>19.70257561002048</v>
+        <v>28.77229959993012</v>
       </c>
       <c r="L19">
-        <v>10.33692348971276</v>
+        <v>6.099094461484913</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.75082888198175</v>
+        <v>12.63411695040412</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.04559802675479</v>
+        <v>10.0758208003002</v>
       </c>
       <c r="D20">
-        <v>9.675836035803329</v>
+        <v>8.378108107735542</v>
       </c>
       <c r="E20">
-        <v>13.98644032223808</v>
+        <v>10.10968984919818</v>
       </c>
       <c r="F20">
-        <v>31.64773764465727</v>
+        <v>19.15246407906898</v>
       </c>
       <c r="G20">
-        <v>32.23030631311053</v>
+        <v>18.97696036825267</v>
       </c>
       <c r="H20">
-        <v>15.28334635762499</v>
+        <v>7.912623634831191</v>
       </c>
       <c r="I20">
-        <v>24.80330250566031</v>
+        <v>14.2212960170056</v>
       </c>
       <c r="J20">
-        <v>10.10496773892924</v>
+        <v>5.743318770825527</v>
       </c>
       <c r="K20">
-        <v>19.95336415094729</v>
+        <v>29.3138570651241</v>
       </c>
       <c r="L20">
-        <v>10.33326982270419</v>
+        <v>6.112395147107405</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.70199113466667</v>
+        <v>12.57466905285615</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.15160950097414</v>
+        <v>10.55406954959612</v>
       </c>
       <c r="D21">
-        <v>9.758586386074267</v>
+        <v>8.755094714933366</v>
       </c>
       <c r="E21">
-        <v>14.0209980827605</v>
+        <v>10.42899311796531</v>
       </c>
       <c r="F21">
-        <v>31.49888707397995</v>
+        <v>19.34624947220778</v>
       </c>
       <c r="G21">
-        <v>31.98124455700441</v>
+        <v>19.14004789542253</v>
       </c>
       <c r="H21">
-        <v>15.19855059545968</v>
+        <v>7.752820403806135</v>
       </c>
       <c r="I21">
-        <v>24.67736193222358</v>
+        <v>14.23885429165159</v>
       </c>
       <c r="J21">
-        <v>10.08592590189138</v>
+        <v>5.747211515492954</v>
       </c>
       <c r="K21">
-        <v>20.77221591759699</v>
+        <v>31.06745962370433</v>
       </c>
       <c r="L21">
-        <v>10.32217803361528</v>
+        <v>6.159607156392365</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.54485764142028</v>
+        <v>12.40450031830299</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.22153663071869</v>
+        <v>10.85832686985895</v>
       </c>
       <c r="D22">
-        <v>9.813058918237433</v>
+        <v>8.994916180835038</v>
       </c>
       <c r="E22">
-        <v>14.0451029417733</v>
+        <v>10.63641022109599</v>
       </c>
       <c r="F22">
-        <v>31.40917994853201</v>
+        <v>19.50255215793635</v>
       </c>
       <c r="G22">
-        <v>31.82920702505237</v>
+        <v>19.30255434020275</v>
       </c>
       <c r="H22">
-        <v>15.14561216167341</v>
+        <v>7.656955630497618</v>
       </c>
       <c r="I22">
-        <v>24.60035809255075</v>
+        <v>14.27211996381905</v>
       </c>
       <c r="J22">
-        <v>10.07436323667738</v>
+        <v>5.751944715970659</v>
       </c>
       <c r="K22">
-        <v>21.28914749729698</v>
+        <v>32.1647595756825</v>
       </c>
       <c r="L22">
-        <v>10.31580888982391</v>
+        <v>6.192364718897144</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.44735750816413</v>
+        <v>12.31718824248256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.18416171525633</v>
+        <v>10.69671381993487</v>
       </c>
       <c r="D23">
-        <v>9.783953854725759</v>
+        <v>8.867531877542612</v>
       </c>
       <c r="E23">
-        <v>14.03210009674175</v>
+        <v>10.52583919495339</v>
       </c>
       <c r="F23">
-        <v>31.45636307959783</v>
+        <v>19.41634585275798</v>
       </c>
       <c r="G23">
-        <v>31.90936441618544</v>
+        <v>19.21053727066869</v>
       </c>
       <c r="H23">
-        <v>15.17363947988388</v>
+        <v>7.707294190420215</v>
       </c>
       <c r="I23">
-        <v>24.64096993741494</v>
+        <v>14.25229773830848</v>
       </c>
       <c r="J23">
-        <v>10.08045383831988</v>
+        <v>5.749214306983695</v>
       </c>
       <c r="K23">
-        <v>21.01495111731395</v>
+        <v>31.58354827244671</v>
       </c>
       <c r="L23">
-        <v>10.31912786602087</v>
+        <v>6.174706032959633</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.49891894958506</v>
+        <v>12.36147843897659</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.04387735086044</v>
+        <v>10.06786749812836</v>
       </c>
       <c r="D24">
-        <v>9.674490932882881</v>
+        <v>8.371838759536798</v>
       </c>
       <c r="E24">
-        <v>13.98590144836653</v>
+        <v>10.10445327311372</v>
       </c>
       <c r="F24">
-        <v>31.65029794468612</v>
+        <v>19.14978083437643</v>
       </c>
       <c r="G24">
-        <v>32.23455721348927</v>
+        <v>18.97519910237589</v>
       </c>
       <c r="H24">
-        <v>15.2847741877698</v>
+        <v>7.915371441627848</v>
       </c>
       <c r="I24">
-        <v>24.80545026613469</v>
+        <v>14.22136025867311</v>
       </c>
       <c r="J24">
-        <v>10.10529388879245</v>
+        <v>5.743291240367854</v>
       </c>
       <c r="K24">
-        <v>19.93968000033817</v>
+        <v>29.28436637139323</v>
       </c>
       <c r="L24">
-        <v>10.33346600402602</v>
+        <v>6.111655297099492</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.70464693728614</v>
+        <v>12.57782703545349</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.89584707337991</v>
+        <v>9.355735633005684</v>
       </c>
       <c r="D25">
-        <v>9.558461490667945</v>
+        <v>7.810516503400275</v>
       </c>
       <c r="E25">
-        <v>13.94272599049386</v>
+        <v>9.646220093569818</v>
       </c>
       <c r="F25">
-        <v>31.89179708090333</v>
+        <v>18.98179113443856</v>
       </c>
       <c r="G25">
-        <v>32.63090798801179</v>
+        <v>18.94241402322515</v>
       </c>
       <c r="H25">
-        <v>15.41530666854353</v>
+        <v>8.172824228250542</v>
       </c>
       <c r="I25">
-        <v>25.0055388317799</v>
+        <v>14.27396283992281</v>
       </c>
       <c r="J25">
-        <v>10.13588770147167</v>
+        <v>5.745916373359869</v>
       </c>
       <c r="K25">
-        <v>18.70514017759158</v>
+        <v>26.59251153267104</v>
       </c>
       <c r="L25">
-        <v>10.35272605880337</v>
+        <v>6.051672694417102</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.9487871581479</v>
+        <v>12.90198063218592</v>
       </c>
     </row>
   </sheetData>
